--- a/incident_numbers_reported.xlsx
+++ b/incident_numbers_reported.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001DD7F3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1031,7 +1037,7 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1356,7 +1362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,7 +2162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2231,7 +2237,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3081,7 +3087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3106,7 +3112,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3381,7 +3387,7 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,7 +3462,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3781,7 +3787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E134" t="n">
+      <c r="E134" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,7 +3862,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E137" t="n">
+      <c r="E137" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,7 +5362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E197" t="n">
+      <c r="E197" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,7 +6162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E229" t="n">
+      <c r="E229" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6981,7 +6987,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E262" t="n">
+      <c r="E262" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7281,7 +7287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E274" t="n">
+      <c r="E274" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7456,7 +7462,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E281" t="n">
+      <c r="E281" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7681,7 +7687,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E290" t="n">
+      <c r="E290" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8006,7 +8012,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E303" t="n">
+      <c r="E303" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8281,7 +8287,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E314" t="n">
+      <c r="E314" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8331,7 +8337,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E316" t="n">
+      <c r="E316" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8381,7 +8387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E318" t="n">
+      <c r="E318" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8456,7 +8462,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E321" t="n">
+      <c r="E321" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,7 +8512,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E323" t="n">
+      <c r="E323" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8631,7 +8637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E328" t="n">
+      <c r="E328" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9931,7 +9937,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E380" t="n">
+      <c r="E380" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10031,7 +10037,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E384" t="n">
+      <c r="E384" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10831,7 +10837,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E416" t="n">
+      <c r="E416" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11606,7 +11612,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E447" t="n">
+      <c r="E447" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12056,7 +12062,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E465" t="n">
+      <c r="E465" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12781,7 +12787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E494" t="n">
+      <c r="E494" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13206,7 +13212,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E511" t="n">
+      <c r="E511" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13756,7 +13762,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E533" t="n">
+      <c r="E533" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14581,7 +14587,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E566" t="n">
+      <c r="E566" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14631,7 +14637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E568" t="n">
+      <c r="E568" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14781,7 +14787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E574" t="n">
+      <c r="E574" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15456,7 +15462,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E601" t="n">
+      <c r="E601" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15981,7 +15987,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E622" t="n">
+      <c r="E622" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16156,7 +16162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E629" t="n">
+      <c r="E629" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16356,7 +16362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E637" t="n">
+      <c r="E637" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16481,7 +16487,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E642" t="n">
+      <c r="E642" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16581,7 +16587,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E646" t="n">
+      <c r="E646" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16931,7 +16937,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E660" t="n">
+      <c r="E660" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16956,7 +16962,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E661" t="n">
+      <c r="E661" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17031,7 +17037,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E664" t="n">
+      <c r="E664" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17331,7 +17337,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E676" t="n">
+      <c r="E676" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17481,7 +17487,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E682" t="n">
+      <c r="E682" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17831,7 +17837,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E696" t="n">
+      <c r="E696" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17856,7 +17862,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E697" t="n">
+      <c r="E697" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19306,7 +19312,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E755" t="n">
+      <c r="E755" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19581,7 +19587,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E766" t="n">
+      <c r="E766" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20781,7 +20787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E814" t="n">
+      <c r="E814" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21831,7 +21837,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E856" t="n">
+      <c r="E856" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21906,7 +21912,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E859" t="n">
+      <c r="E859" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25631,7 +25637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1008" t="n">
+      <c r="E1008" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25806,7 +25812,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1015" t="n">
+      <c r="E1015" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26281,7 +26287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1034" t="n">
+      <c r="E1034" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26781,7 +26787,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E1054" t="n">
+      <c r="E1054" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27031,7 +27037,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1064" t="n">
+      <c r="E1064" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27081,7 +27087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1066" t="n">
+      <c r="E1066" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27781,7 +27787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1094" t="n">
+      <c r="E1094" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27881,7 +27887,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1098" t="n">
+      <c r="E1098" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28631,7 +28637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1128" t="n">
+      <c r="E1128" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29056,7 +29062,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E1145" t="n">
+      <c r="E1145" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29806,7 +29812,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1175" t="n">
+      <c r="E1175" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31056,7 +31062,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1225" t="n">
+      <c r="E1225" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31081,7 +31087,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E1226" t="n">
+      <c r="E1226" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31181,7 +31187,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E1230" t="n">
+      <c r="E1230" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32381,7 +32387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1278" t="n">
+      <c r="E1278" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32781,7 +32787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1294" t="n">
+      <c r="E1294" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32856,7 +32862,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1297" t="n">
+      <c r="E1297" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32981,7 +32987,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1302" t="n">
+      <c r="E1302" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33281,7 +33287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1314" t="n">
+      <c r="E1314" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33381,7 +33387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1318" t="n">
+      <c r="E1318" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33556,7 +33562,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1325" t="n">
+      <c r="E1325" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33631,7 +33637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1328" t="n">
+      <c r="E1328" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33656,7 +33662,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1329" t="n">
+      <c r="E1329" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34206,7 +34212,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1351" t="n">
+      <c r="E1351" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34406,7 +34412,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1359" t="n">
+      <c r="E1359" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34931,7 +34937,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1380" t="n">
+      <c r="E1380" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35381,7 +35387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1398" t="n">
+      <c r="E1398" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35506,7 +35512,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1403" t="n">
+      <c r="E1403" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35581,7 +35587,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1406" t="n">
+      <c r="E1406" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36006,7 +36012,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1423" t="n">
+      <c r="E1423" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36131,7 +36137,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1428" t="n">
+      <c r="E1428" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -37181,7 +37187,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1470" t="n">
+      <c r="E1470" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -37331,7 +37337,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1476" t="n">
+      <c r="E1476" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -37506,7 +37512,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1483" t="n">
+      <c r="E1483" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -37981,7 +37987,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1502" t="n">
+      <c r="E1502" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38356,7 +38362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1517" t="n">
+      <c r="E1517" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38656,7 +38662,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1529" t="n">
+      <c r="E1529" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38781,7 +38787,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E1534" t="n">
+      <c r="E1534" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39381,7 +39387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1558" t="n">
+      <c r="E1558" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39981,7 +39987,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1582" t="n">
+      <c r="E1582" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40456,7 +40462,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1601" t="n">
+      <c r="E1601" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40681,7 +40687,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E1610" t="n">
+      <c r="E1610" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40956,7 +40962,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1621" t="n">
+      <c r="E1621" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41331,7 +41337,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1636" t="n">
+      <c r="E1636" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41431,7 +41437,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E1640" t="n">
+      <c r="E1640" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41956,7 +41962,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E1661" t="n">
+      <c r="E1661" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42131,7 +42137,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1668" t="n">
+      <c r="E1668" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42456,7 +42462,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1681" t="n">
+      <c r="E1681" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -43581,7 +43587,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1726" t="n">
+      <c r="E1726" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44106,7 +44112,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1747" t="n">
+      <c r="E1747" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44156,7 +44162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1749" t="n">
+      <c r="E1749" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44256,7 +44262,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1753" t="n">
+      <c r="E1753" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45006,7 +45012,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1783" t="n">
+      <c r="E1783" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45381,7 +45387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1798" t="n">
+      <c r="E1798" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46081,7 +46087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1826" t="n">
+      <c r="E1826" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46631,7 +46637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1848" t="n">
+      <c r="E1848" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46781,7 +46787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1854" t="n">
+      <c r="E1854" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47131,7 +47137,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1868" t="n">
+      <c r="E1868" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47656,7 +47662,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1889" t="n">
+      <c r="E1889" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -48431,7 +48437,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1920" t="n">
+      <c r="E1920" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -48931,7 +48937,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1940" t="n">
+      <c r="E1940" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49081,7 +49087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E1946" t="n">
+      <c r="E1946" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50731,7 +50737,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2012" t="n">
+      <c r="E2012" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50781,7 +50787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2014" t="n">
+      <c r="E2014" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51931,7 +51937,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E2060" t="n">
+      <c r="E2060" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51956,7 +51962,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2061" t="n">
+      <c r="E2061" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52056,7 +52062,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2065" t="n">
+      <c r="E2065" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52081,7 +52087,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E2066" t="n">
+      <c r="E2066" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52106,7 +52112,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2067" t="n">
+      <c r="E2067" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52381,7 +52387,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E2078" t="n">
+      <c r="E2078" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53031,7 +53037,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2104" t="n">
+      <c r="E2104" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53306,7 +53312,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2115" t="n">
+      <c r="E2115" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53806,7 +53812,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2135" t="n">
+      <c r="E2135" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54231,7 +54237,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E2152" t="n">
+      <c r="E2152" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54281,7 +54287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2154" t="n">
+      <c r="E2154" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54406,7 +54412,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2159" t="n">
+      <c r="E2159" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -54681,7 +54687,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2170" t="n">
+      <c r="E2170" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -55456,7 +55462,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2201" t="n">
+      <c r="E2201" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56006,7 +56012,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2223" t="n">
+      <c r="E2223" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56706,7 +56712,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2251" t="n">
+      <c r="E2251" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56881,7 +56887,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2258" t="n">
+      <c r="E2258" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57106,7 +57112,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2267" t="n">
+      <c r="E2267" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57256,7 +57262,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E2273" t="n">
+      <c r="E2273" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57281,7 +57287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2274" t="n">
+      <c r="E2274" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58081,7 +58087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2306" t="n">
+      <c r="E2306" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58606,7 +58612,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2327" t="n">
+      <c r="E2327" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59131,7 +59137,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2348" t="n">
+      <c r="E2348" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59256,7 +59262,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E2353" t="n">
+      <c r="E2353" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59381,7 +59387,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2358" t="n">
+      <c r="E2358" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59506,7 +59512,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E2363" t="n">
+      <c r="E2363" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59931,7 +59937,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2380" t="n">
+      <c r="E2380" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61731,7 +61737,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2452" t="n">
+      <c r="E2452" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62656,7 +62662,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2489" t="n">
+      <c r="E2489" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63081,7 +63087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2506" t="n">
+      <c r="E2506" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63356,7 +63362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2517" t="n">
+      <c r="E2517" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63456,7 +63462,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2521" t="n">
+      <c r="E2521" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63706,7 +63712,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2531" t="n">
+      <c r="E2531" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63731,7 +63737,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2532" t="n">
+      <c r="E2532" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64231,7 +64237,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2552" t="n">
+      <c r="E2552" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64706,7 +64712,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2571" t="n">
+      <c r="E2571" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64956,7 +64962,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2581" t="n">
+      <c r="E2581" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65156,7 +65162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2589" t="n">
+      <c r="E2589" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65431,7 +65437,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2600" t="n">
+      <c r="E2600" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65681,7 +65687,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2610" t="n">
+      <c r="E2610" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66281,7 +66287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2634" t="n">
+      <c r="E2634" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66956,7 +66962,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2661" t="n">
+      <c r="E2661" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67281,7 +67287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2674" t="n">
+      <c r="E2674" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67331,7 +67337,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2676" t="n">
+      <c r="E2676" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67631,7 +67637,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2688" t="n">
+      <c r="E2688" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68606,7 +68612,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2727" t="n">
+      <c r="E2727" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68756,7 +68762,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2733" t="n">
+      <c r="E2733" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68931,7 +68937,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2740" t="n">
+      <c r="E2740" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69256,7 +69262,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2753" t="n">
+      <c r="E2753" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69831,7 +69837,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2776" t="n">
+      <c r="E2776" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70456,7 +70462,7 @@
           <t>HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="E2801" t="n">
+      <c r="E2801" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71331,7 +71337,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2836" t="n">
+      <c r="E2836" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71356,7 +71362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2837" t="n">
+      <c r="E2837" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71431,7 +71437,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2840" t="n">
+      <c r="E2840" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71731,7 +71737,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2852" t="n">
+      <c r="E2852" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -72081,7 +72087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2866" t="n">
+      <c r="E2866" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -72656,7 +72662,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2889" t="n">
+      <c r="E2889" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -72931,7 +72937,7 @@
           <t>MIDDLE SCHL</t>
         </is>
       </c>
-      <c r="E2900" t="n">
+      <c r="E2900" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -73156,7 +73162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2909" t="n">
+      <c r="E2909" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -74081,7 +74087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2946" t="n">
+      <c r="E2946" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -74106,7 +74112,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2947" t="n">
+      <c r="E2947" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -74356,7 +74362,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2957" t="n">
+      <c r="E2957" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -74831,7 +74837,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2976" t="n">
+      <c r="E2976" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -75081,7 +75087,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E2986" t="n">
+      <c r="E2986" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -75506,7 +75512,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3003" t="n">
+      <c r="E3003" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -75581,7 +75587,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3006" t="n">
+      <c r="E3006" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -76156,7 +76162,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3029" t="n">
+      <c r="E3029" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -76231,7 +76237,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3032" t="n">
+      <c r="E3032" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -76781,7 +76787,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3054" t="n">
+      <c r="E3054" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -77006,7 +77012,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3063" t="n">
+      <c r="E3063" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -77281,7 +77287,7 @@
           <t>ELEMENTARY</t>
         </is>
       </c>
-      <c r="E3074" t="n">
+      <c r="E3074" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -78360,7 +78366,7 @@
         </is>
       </c>
       <c r="D3129" t="inlineStr"/>
-      <c r="E3129" t="n">
+      <c r="E3129" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -78479,7 +78485,7 @@
         </is>
       </c>
       <c r="D3136" t="inlineStr"/>
-      <c r="E3136" t="n">
+      <c r="E3136" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -78734,7 +78740,7 @@
         </is>
       </c>
       <c r="D3151" t="inlineStr"/>
-      <c r="E3151" t="n">
+      <c r="E3151" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -81352,7 +81358,7 @@
         </is>
       </c>
       <c r="D3305" t="inlineStr"/>
-      <c r="E3305" t="n">
+      <c r="E3305" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -82151,7 +82157,7 @@
         </is>
       </c>
       <c r="D3352" t="inlineStr"/>
-      <c r="E3352" t="n">
+      <c r="E3352" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -82202,7 +82208,7 @@
         </is>
       </c>
       <c r="D3355" t="inlineStr"/>
-      <c r="E3355" t="n">
+      <c r="E3355" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -83086,7 +83092,7 @@
         </is>
       </c>
       <c r="D3407" t="inlineStr"/>
-      <c r="E3407" t="n">
+      <c r="E3407" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -84905,7 +84911,7 @@
         </is>
       </c>
       <c r="D3514" t="inlineStr"/>
-      <c r="E3514" t="n">
+      <c r="E3514" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -85092,7 +85098,7 @@
         </is>
       </c>
       <c r="D3525" t="inlineStr"/>
-      <c r="E3525" t="n">
+      <c r="E3525" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -85602,7 +85608,7 @@
         </is>
       </c>
       <c r="D3555" t="inlineStr"/>
-      <c r="E3555" t="n">
+      <c r="E3555" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -87591,7 +87597,7 @@
         </is>
       </c>
       <c r="D3672" t="inlineStr"/>
-      <c r="E3672" t="n">
+      <c r="E3672" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -88441,7 +88447,7 @@
         </is>
       </c>
       <c r="D3722" t="inlineStr"/>
-      <c r="E3722" t="n">
+      <c r="E3722" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -88917,7 +88923,7 @@
         </is>
       </c>
       <c r="D3750" t="inlineStr"/>
-      <c r="E3750" t="n">
+      <c r="E3750" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -90022,7 +90028,7 @@
         </is>
       </c>
       <c r="D3815" t="inlineStr"/>
-      <c r="E3815" t="n">
+      <c r="E3815" s="2" t="n">
         <v>1</v>
       </c>
     </row>
